--- a/public/sample-template.xlsx
+++ b/public/sample-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linh/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linh/staff-portal-web/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3878C9-D38B-174E-B4F9-E434FAFB5142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E6A758-070C-ED4B-BD77-480FC5640214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{BA0EB9C3-12C4-9C45-9C5E-DF8F105EEFE8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>Laptop A</t>
   </si>
@@ -59,12 +59,6 @@
     <t>15.6 FHD</t>
   </si>
   <si>
-    <t>Lưu kho</t>
-  </si>
-  <si>
-    <t>Chờ sửa chữa</t>
-  </si>
-  <si>
     <t>Intel i9</t>
   </si>
   <si>
@@ -99,6 +93,21 @@
   </si>
   <si>
     <t>Người Dùng (assigned)</t>
+  </si>
+  <si>
+    <t>Loại (type)</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>Chờ cấp phát</t>
+  </si>
+  <si>
+    <t>Hỏng</t>
   </si>
 </sst>
 </file>
@@ -490,159 +499,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAED9B37-DC91-F646-B2F5-9F1FFDAF461F}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" customWidth="1"/>
+    <col min="2" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" ht="17">
+    <row r="2" spans="1:10" ht="17">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1">
         <v>1234566</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1">
         <v>1234567</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1">
         <v>1234568</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
         <v>1234569</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -651,6 +675,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
